--- a/biology/Botanique/Betterave/Betterave.xlsx
+++ b/biology/Botanique/Betterave/Betterave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beta vulgaris subsp. vulgaris
-La betterave, Beta vulgaris subsp. vulgaris, est une sous-espèce de plantes de la famille des Amaranthaceae, cultivées pour leurs racines charnues, et utilisées pour la production du sucre, comme légume dans l'alimentation humaine, comme plantes fourragères, et plus récemment comme biocarburant avec le bioéthanol. La betterave, plus particulièrement la betterave rouge, est aussi utilisée comme un colorant naturel pour la nourriture et les vêtements[1]
+La betterave, Beta vulgaris subsp. vulgaris, est une sous-espèce de plantes de la famille des Amaranthaceae, cultivées pour leurs racines charnues, et utilisées pour la production du sucre, comme légume dans l'alimentation humaine, comme plantes fourragères, et plus récemment comme biocarburant avec le bioéthanol. La betterave, plus particulièrement la betterave rouge, est aussi utilisée comme un colorant naturel pour la nourriture et les vêtements
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom scientifique : Beta vulgaris L.
 Famille des Chénopodiacées (selon la classification classique) ou famille des Amaranthacées (selon la classification phylogénétique).
-La betterave (2n = 18 chromosomes) est une espèce bisannuelle et allogame à inflorescence en glomérule et à pollinisation principalement anémophile[2].
+La betterave (2n = 18 chromosomes) est une espèce bisannuelle et allogame à inflorescence en glomérule et à pollinisation principalement anémophile.
 Les betteraves cultivées, dicotylédones, apétales, dériveraient de la betterave maritime (actuellement classée comme Beta vulgaris L. subsp. maritima (L.) Arcang.) qui est spontanée sur les rivages maritimes en Europe.
 L'espèce Beta vulgaris L. inclut aussi la bette ou poirée, qui était auparavant considérée comme une espèce distincte (Beta cicla (L.) L.).
-Les betteraves font l'objet d'études poussées de la part des botanistes, notamment quant à leur système de reproduction, les effets de la sélection naturelle ou agricole ou du changement climatique sur la diversité génétique et le polymorphisme nucléotidique au sein du genre Beta[3], la gynodioécie au sein des betteraves sauvages, les liens entre polymorphisme pour l'autofécondation et la diversité génétique. Interactions entre formes cultivées et formes marronnes, rudérales ou sauvages du complexe Beta vulgaris.
+Les betteraves font l'objet d'études poussées de la part des botanistes, notamment quant à leur système de reproduction, les effets de la sélection naturelle ou agricole ou du changement climatique sur la diversité génétique et le polymorphisme nucléotidique au sein du genre Beta, la gynodioécie au sein des betteraves sauvages, les liens entre polymorphisme pour l'autofécondation et la diversité génétique. Interactions entre formes cultivées et formes marronnes, rudérales ou sauvages du complexe Beta vulgaris.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Principaux types variétaux cultivés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe de nombreuses variétés, classées différemment selon les types.
 Les betteraves sucrières sont les plus riches en sucres, de couleur blanche et très enterrées. On les classe selon leur rendement en sucre, leur résistance à des maladies telles que la rhizomanie et le rhizoctone brun et leur tolérance aux nématodes.
@@ -590,7 +606,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La betterave cultivée est une plante bisannuelle :
 première année, phase végétative : développement des feuilles et constitution de la racine charnue, accumulation de réserves en sucre, c'est aussi la phase de culture ;
@@ -622,11 +640,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Betterave sucrière :  production de sucre, après râpage de la racine, d'abord par extraction du sucre par de l'eau chaude ; les betteraves râpées dont on a extrait le sucre constituent un sous-produit, la pulpe de betterave, qui est déshydratée par pression puis par chauffage et qui sert à nourrir le bétail. Puis le jus de betterave est purifié, concentré puis soit fermenté pour être distillé et donner de l'alcool, soit par cuisson, cristallisé et séparé de ses impuretés qui forment la mélasse qui contient encore 50 % de sucre ; la mélasse est utilisée surtout pour la fabrication d'alcool ou est incorporée à la pulpe de betteraves pour l'alimentation de bétail. Très accessoirement, elle peut servir à la production de levure de boulangerie ; les collets et les feuilles servent pour l'alimentation du bétail ou sont restitués au sol (engrais vert).
 Betterave fourragère : alimentation animale ; la plante entière est consommée, principalement par les ruminants. Récoltée et stockée en silos elle est distribuée en hiver surtout aux vaches laitières mais également aux taurillons, aux ovins, aux caprins et aux porcins qui la valorisent très bien dans leur alimentation. Elle n'est pas impropre à la consommation humaine, son goût est plus ou moins prononcé selon les variétés. Elle peut être consommée crue comme les carottes râpées, ses pétioles et ses feuilles cuites accompagnent très bien les plats en sauce ou les soupes.
-Betterave potagère (betterave rouge) : alimentation humaine, généralement cuite de manière industrielle, colorant alimentaire (racine riche en bétalaïnes). La betterave peut être consommée crue, râpée dans une salade par exemple, mais se mange généralement cuite. On la cuit entière (à l'eau, à la vapeur ou au four) pour l'utiliser assaisonnée comme hors-d'œuvre, soit en salade avec pomme de terre et mâche ou encore en salade avec des endives. On la cuit à la casserole, taillée de diverses façons, pour la consommer en légume d'accompagnement (bortsch, compotée avec des oignons et relevée au vinaigre, en purée, braisée à la bière, etc.). La betterave rouge peut aussi se cuisiner en dessert. La betterave rouge est aussi utilisée comme remède de grand-mère dans le traitement des kystes[4].</t>
+Betterave potagère (betterave rouge) : alimentation humaine, généralement cuite de manière industrielle, colorant alimentaire (racine riche en bétalaïnes). La betterave peut être consommée crue, râpée dans une salade par exemple, mais se mange généralement cuite. On la cuit entière (à l'eau, à la vapeur ou au four) pour l'utiliser assaisonnée comme hors-d'œuvre, soit en salade avec pomme de terre et mâche ou encore en salade avec des endives. On la cuit à la casserole, taillée de diverses façons, pour la consommer en légume d'accompagnement (bortsch, compotée avec des oignons et relevée au vinaigre, en purée, braisée à la bière, etc.). La betterave rouge peut aussi se cuisiner en dessert. La betterave rouge est aussi utilisée comme remède de grand-mère dans le traitement des kystes.</t>
         </is>
       </c>
     </row>
@@ -654,10 +674,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les racines de Beta vulgaris contiennent une quantité significative de vitamine C et les feuilles sont une source de vitamine A. Elles sont également sources de fibres, d'acide folique et d'antioxydants. Les racines sont également riches en bétaïne (N, N, N-triméthylglycine).
-La betterave est riche en nitrates qui se transforment en nitrites grâce à des bactéries de la bouche. Ces nitrites sont impliqués dans la vasodilatation et la fluidification du sang, ce qui améliore l'afflux de sang dans certaines zones du cerveau qui, avec le temps, sont moins perfusées. Une dose quotidienne de jus de betterave peut potentiellement prévenir la démence et la baisse cognitive en améliorant cet afflux sanguin cérébral[5].
+La betterave est riche en nitrates qui se transforment en nitrites grâce à des bactéries de la bouche. Ces nitrites sont impliqués dans la vasodilatation et la fluidification du sang, ce qui améliore l'afflux de sang dans certaines zones du cerveau qui, avec le temps, sont moins perfusées. Une dose quotidienne de jus de betterave peut potentiellement prévenir la démence et la baisse cognitive en améliorant cet afflux sanguin cérébral.
 Une tasse  (225,8 grammes)  de betteraves émincées contient :
 31 kcal (130 kJ)
 8,5 g d'hydrates de carbone
@@ -693,7 +715,9 @@
           <t>Économie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture occupe environ 7 millions d'hectares dans le monde, surtout en Europe du Nord et aux États-Unis ;
 Production mondiale (FAO 2002) :
@@ -729,11 +753,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire d'origine de l'espèce Beta vulgaris se trouve en Mésopotamie et c'est vraisemblablement là que les premières cueillettes ont eu lieu lors de la sédentarisation des hommes[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire d'origine de l'espèce Beta vulgaris se trouve en Mésopotamie et c'est vraisemblablement là que les premières cueillettes ont eu lieu lors de la sédentarisation des hommes.
 La betterave est connue comme légume depuis l'Antiquité[réf. nécessaire]. Les premières traces écrites d'utilisation comme plante médicinale nous viennent des Grecs tels que Dioscoride, Galien, Hippocrate, Théocrate au Ve siècle av. J.-C.
-Les principales variétés de betterave ont été décrites au Moyen Âge[6], notamment par Matthiole. L'origine de l'utilisation alimentaire des racines de betterave semble se situer dans la grande plaine qui s'étend de l'Allemagne à la Russie.
+Les principales variétés de betterave ont été décrites au Moyen Âge, notamment par Matthiole. L'origine de l'utilisation alimentaire des racines de betterave semble se situer dans la grande plaine qui s'étend de l'Allemagne à la Russie.
 En 1600, Olivier de Serres écrit dans Le Théâtre d'agriculture et mesnage des champs :
 « Une espèce de pastenades est la bette-rave, laquelle nous est venue d'Italie n'a pas longtemps. C'est une racine fort rouge, assez grosse, dont les feuilles sont des bettes, et tout cela bon à manger, appareillé en cuisine : voire la racine est rangée entre les viandes délicates, dont le jus qu'elle rend en cuisant, semblable à sirop de sucre, est très beau à voir pour sa vermeille couleur. »
 Il chercha le premier à extraire le sucre des betteraves mais n'a pas réussi à trouver un processus rentable.
@@ -772,9 +798,11 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La betterave voit son nom attribué au 4e jour du mois de brumaire du calendrier républicain ou révolutionnaire français[7], généralement chaque 25 octobre du calendrier grégorien.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La betterave voit son nom attribué au 4e jour du mois de brumaire du calendrier républicain ou révolutionnaire français, généralement chaque 25 octobre du calendrier grégorien.
 </t>
         </is>
       </c>
